--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.Accounting/eFMS.API.Accounting/Resources/Files/VoucherImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.Accounting/eFMS.API.Accounting/Resources/Files/VoucherImportTemplate.xlsx
@@ -38,7 +38,7 @@
     <t>AD2004/0005</t>
   </si>
   <si>
-    <t>voucher1234</t>
+    <t>voucher2568</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>43867</v>
+        <v>43831</v>
       </c>
     </row>
   </sheetData>
